--- a/src/promos/2023-2024/Dang-Vu-Duc/mon/temps-1.2/edt Do_It.23-24.xlsx
+++ b/src/promos/2023-2024/Dang-Vu-Duc/mon/temps-1.2/edt Do_It.23-24.xlsx
@@ -94,7 +94,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill/>
     </fill>
@@ -227,8 +227,18 @@
         <fgColor rgb="00d9d9d9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea9999"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -874,11 +884,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1192,6 +1208,16 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3297,44 +3323,20 @@
       <c r="S22" s="74" t="n"/>
       <c r="T22" s="91" t="n"/>
       <c r="U22" s="15" t="n"/>
-      <c r="V22" s="78" t="inlineStr">
-        <is>
-          <t>Lean Engineering
-(Sandrine Olivencia)
-218</t>
-        </is>
-      </c>
-      <c r="W22" s="74" t="n"/>
-      <c r="X22" s="75" t="n"/>
-      <c r="Y22" s="78" t="inlineStr">
-        <is>
-          <t>Lean Engineering
-(Sandrine Olivencia)
-218</t>
-        </is>
-      </c>
-      <c r="Z22" s="74" t="n"/>
-      <c r="AA22" s="75" t="n"/>
+      <c r="V22" s="147" t="n"/>
+      <c r="W22" s="148" t="n"/>
+      <c r="X22" s="148" t="n"/>
+      <c r="Y22" s="147" t="n"/>
+      <c r="Z22" s="148" t="n"/>
+      <c r="AA22" s="148" t="n"/>
       <c r="AB22" s="17" t="n"/>
       <c r="AC22" s="15" t="n"/>
-      <c r="AD22" s="78" t="inlineStr">
-        <is>
-          <t>Lean Engineering
-(Sandrine Olivencia)
-218</t>
-        </is>
-      </c>
-      <c r="AE22" s="74" t="n"/>
-      <c r="AF22" s="75" t="n"/>
-      <c r="AG22" s="78" t="inlineStr">
-        <is>
-          <t>Lean Engineering
-(Sandrine Olivencia)
-218</t>
-        </is>
-      </c>
-      <c r="AH22" s="74" t="n"/>
-      <c r="AI22" s="75" t="n"/>
+      <c r="AD22" s="147" t="n"/>
+      <c r="AE22" s="148" t="n"/>
+      <c r="AF22" s="148" t="n"/>
+      <c r="AG22" s="147" t="n"/>
+      <c r="AH22" s="148" t="n"/>
+      <c r="AI22" s="148" t="n"/>
       <c r="AJ22" s="20" t="n"/>
       <c r="AK22" s="73" t="inlineStr">
         <is>
@@ -3833,7 +3835,7 @@
       <c r="AQ28" s="16" t="n"/>
       <c r="AR28" s="17" t="n"/>
     </row>
-    <row r="29" ht="12.95" customHeight="1">
+    <row r="29" ht="40" customHeight="1">
       <c r="A29" s="84" t="n"/>
       <c r="B29" s="83" t="n">
         <v>3</v>
@@ -3895,20 +3897,44 @@
       <c r="AA29" s="16" t="n"/>
       <c r="AB29" s="17" t="n"/>
       <c r="AC29" s="19" t="n"/>
-      <c r="AD29" s="16" t="n"/>
-      <c r="AE29" s="16" t="n"/>
-      <c r="AF29" s="17" t="n"/>
-      <c r="AG29" s="19" t="n"/>
-      <c r="AH29" s="16" t="n"/>
-      <c r="AI29" s="16" t="n"/>
+      <c r="AD29" s="149" t="inlineStr">
+        <is>
+          <t>Lean Engineering
+(Sandrine Olivencia)
+218</t>
+        </is>
+      </c>
+      <c r="AE29" s="74" t="n"/>
+      <c r="AF29" s="81" t="n"/>
+      <c r="AG29" s="150" t="inlineStr">
+        <is>
+          <t>Lean Engineering
+(Sandrine Olivencia)
+218</t>
+        </is>
+      </c>
+      <c r="AH29" s="74" t="n"/>
+      <c r="AI29" s="81" t="n"/>
       <c r="AJ29" s="17" t="n"/>
       <c r="AK29" s="15" t="n"/>
-      <c r="AL29" s="16" t="n"/>
-      <c r="AM29" s="16" t="n"/>
-      <c r="AN29" s="18" t="n"/>
-      <c r="AO29" s="19" t="n"/>
-      <c r="AP29" s="16" t="n"/>
-      <c r="AQ29" s="16" t="n"/>
+      <c r="AL29" s="149" t="inlineStr">
+        <is>
+          <t>Lean Engineering
+(Sandrine Olivencia)
+218</t>
+        </is>
+      </c>
+      <c r="AM29" s="74" t="n"/>
+      <c r="AN29" s="81" t="n"/>
+      <c r="AO29" s="150" t="inlineStr">
+        <is>
+          <t>Lean Engineering
+(Sandrine Olivencia)
+218</t>
+        </is>
+      </c>
+      <c r="AP29" s="74" t="n"/>
+      <c r="AQ29" s="81" t="n"/>
       <c r="AR29" s="17" t="n"/>
     </row>
     <row r="30" ht="12.6" customHeight="1">
@@ -20721,6 +20747,7 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="M23:P23"/>
+    <mergeCell ref="AO29:AQ29"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="C1:D1"/>
@@ -20730,10 +20757,9 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="AO31:AQ31"/>
     <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AD22:AF22"/>
     <mergeCell ref="AO23:AR23"/>
     <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="AL29:AN29"/>
     <mergeCell ref="E24:AR24"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="M10:P10"/>
@@ -20741,6 +20767,7 @@
     <mergeCell ref="Y18:Z18"/>
     <mergeCell ref="AL15:AN15"/>
     <mergeCell ref="AO16:AQ16"/>
+    <mergeCell ref="AD29:AF29"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="V23:X23"/>
     <mergeCell ref="E19:AR19"/>
@@ -20761,7 +20788,6 @@
     <mergeCell ref="AD10:AF10"/>
     <mergeCell ref="Q17:T17"/>
     <mergeCell ref="E11:AR11"/>
-    <mergeCell ref="Y22:AA22"/>
     <mergeCell ref="Y6:AA6"/>
     <mergeCell ref="V27:X27"/>
     <mergeCell ref="F27:H27"/>
@@ -20867,12 +20893,12 @@
     <mergeCell ref="AO8:AQ8"/>
     <mergeCell ref="AO17:AQ17"/>
     <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="AG29:AI29"/>
     <mergeCell ref="AD33:AF33"/>
     <mergeCell ref="AK5:AN5"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="W29:X29"/>
-    <mergeCell ref="AG22:AI22"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="AG31:AI31"/>
     <mergeCell ref="M15:P15"/>
